--- a/STAT-SARS-CoV2-nPT-18.05.2020.xlsx
+++ b/STAT-SARS-CoV2-nPT-18.05.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edlindemann/Documents/--- Erik Eriksen ---/-- Research --/COVID 19/GITHUB/RPT_COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB054C0-A0C6-A64A-A822-3A8255A82F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C624544-0447-A340-A06C-E0DE508E5DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" activeTab="1" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="28800" windowHeight="16720" activeTab="2" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="EKL &amp; VOST" sheetId="44" r:id="rId1"/>
@@ -8287,11 +8287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8102BFC-4BE0-9C47-A2EE-5E7A02BF4DDC}">
-  <dimension ref="B1:FA41"/>
+  <dimension ref="B1:FB46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC33" sqref="CC33"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF46" sqref="CF46:FB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18646,7 +18646,7 @@
       <c r="CU32" s="82"/>
       <c r="CV32" s="82"/>
     </row>
-    <row r="33" spans="2:100">
+    <row r="33" spans="2:158">
       <c r="B33" s="59" t="s">
         <v>868</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:100" ht="17" thickBot="1">
+    <row r="34" spans="2:158" ht="17" thickBot="1">
       <c r="B34" s="60" t="s">
         <v>867</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:100" ht="6" customHeight="1">
+    <row r="35" spans="2:158" ht="6" customHeight="1">
       <c r="B35" s="50"/>
       <c r="D35" s="42"/>
       <c r="E35" s="33"/>
@@ -19514,7 +19514,7 @@
       <c r="CU35" s="33"/>
       <c r="CV35" s="33"/>
     </row>
-    <row r="36" spans="2:100" s="81" customFormat="1" ht="19">
+    <row r="36" spans="2:158" s="81" customFormat="1" ht="19">
       <c r="B36" s="83" t="s">
         <v>875</v>
       </c>
@@ -19771,7 +19771,7 @@
       <c r="CU36" s="83"/>
       <c r="CV36" s="83"/>
     </row>
-    <row r="37" spans="2:100">
+    <row r="37" spans="2:158">
       <c r="B37" s="67" t="s">
         <v>868</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="2:100" ht="17" thickBot="1">
+    <row r="38" spans="2:158" ht="17" thickBot="1">
       <c r="B38" s="68" t="s">
         <v>867</v>
       </c>
@@ -20536,12 +20536,239 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:100">
+    <row r="41" spans="2:158">
       <c r="G41" s="46"/>
       <c r="H41" s="46"/>
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
+    </row>
+    <row r="46" spans="2:158">
+      <c r="CF46">
+        <v>9</v>
+      </c>
+      <c r="CG46">
+        <v>13</v>
+      </c>
+      <c r="CH46">
+        <v>21</v>
+      </c>
+      <c r="CI46">
+        <v>30</v>
+      </c>
+      <c r="CJ46">
+        <v>38</v>
+      </c>
+      <c r="CK46">
+        <v>40</v>
+      </c>
+      <c r="CL46">
+        <v>57</v>
+      </c>
+      <c r="CM46">
+        <v>69</v>
+      </c>
+      <c r="CN46">
+        <v>107</v>
+      </c>
+      <c r="CO46">
+        <v>114</v>
+      </c>
+      <c r="CP46">
+        <v>139</v>
+      </c>
+      <c r="CQ46">
+        <v>139</v>
+      </c>
+      <c r="CR46">
+        <v>206</v>
+      </c>
+      <c r="CS46">
+        <v>89</v>
+      </c>
+      <c r="CT46">
+        <v>89</v>
+      </c>
+      <c r="CU46">
+        <v>126</v>
+      </c>
+      <c r="CV46">
+        <v>156</v>
+      </c>
+      <c r="CW46">
+        <v>169</v>
+      </c>
+      <c r="CX46">
+        <v>201</v>
+      </c>
+      <c r="CY46">
+        <v>203</v>
+      </c>
+      <c r="CZ46">
+        <v>276</v>
+      </c>
+      <c r="DA46">
+        <v>191</v>
+      </c>
+      <c r="DB46">
+        <v>354</v>
+      </c>
+      <c r="DC46">
+        <v>418</v>
+      </c>
+      <c r="DD46">
+        <v>486</v>
+      </c>
+      <c r="DE46">
+        <v>571</v>
+      </c>
+      <c r="DF46">
+        <v>627</v>
+      </c>
+      <c r="DG46">
+        <v>726</v>
+      </c>
+      <c r="DH46">
+        <v>1042</v>
+      </c>
+      <c r="DI46">
+        <v>1058</v>
+      </c>
+      <c r="DJ46">
+        <v>1075</v>
+      </c>
+      <c r="DK46">
+        <v>1084</v>
+      </c>
+      <c r="DL46">
+        <v>1099</v>
+      </c>
+      <c r="DM46">
+        <v>1180</v>
+      </c>
+      <c r="DN46">
+        <v>1211</v>
+      </c>
+      <c r="DO46">
+        <v>1173</v>
+      </c>
+      <c r="DP46">
+        <v>1179</v>
+      </c>
+      <c r="DQ46">
+        <v>1175</v>
+      </c>
+      <c r="DR46">
+        <v>1177</v>
+      </c>
+      <c r="DS46">
+        <v>1187</v>
+      </c>
+      <c r="DT46">
+        <v>1227</v>
+      </c>
+      <c r="DU46">
+        <v>1200</v>
+      </c>
+      <c r="DV46">
+        <v>1302</v>
+      </c>
+      <c r="DW46">
+        <v>1284</v>
+      </c>
+      <c r="DX46">
+        <v>1253</v>
+      </c>
+      <c r="DY46">
+        <v>1243</v>
+      </c>
+      <c r="DZ46">
+        <v>1208</v>
+      </c>
+      <c r="EA46">
+        <v>1172</v>
+      </c>
+      <c r="EB46">
+        <v>1146</v>
+      </c>
+      <c r="EC46">
+        <v>1095</v>
+      </c>
+      <c r="ED46">
+        <v>1068</v>
+      </c>
+      <c r="EE46">
+        <v>1040</v>
+      </c>
+      <c r="EF46">
+        <v>1005</v>
+      </c>
+      <c r="EG46">
+        <v>995</v>
+      </c>
+      <c r="EH46">
+        <v>936</v>
+      </c>
+      <c r="EI46">
+        <v>980</v>
+      </c>
+      <c r="EJ46">
+        <v>968</v>
+      </c>
+      <c r="EK46">
+        <v>892</v>
+      </c>
+      <c r="EL46">
+        <v>855</v>
+      </c>
+      <c r="EM46">
+        <v>856</v>
+      </c>
+      <c r="EN46">
+        <v>813</v>
+      </c>
+      <c r="EO46">
+        <v>818</v>
+      </c>
+      <c r="EP46">
+        <v>838</v>
+      </c>
+      <c r="EQ46">
+        <v>874</v>
+      </c>
+      <c r="ER46">
+        <v>842</v>
+      </c>
+      <c r="ES46">
+        <v>815</v>
+      </c>
+      <c r="ET46">
+        <v>797</v>
+      </c>
+      <c r="EU46">
+        <v>805</v>
+      </c>
+      <c r="EV46">
+        <v>709</v>
+      </c>
+      <c r="EW46">
+        <v>692</v>
+      </c>
+      <c r="EX46">
+        <v>680</v>
+      </c>
+      <c r="EY46">
+        <v>673</v>
+      </c>
+      <c r="EZ46">
+        <v>657</v>
+      </c>
+      <c r="FA46">
+        <v>649</v>
+      </c>
+      <c r="FB46">
+        <v>628</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -20578,7 +20805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B633120-8753-6A4D-B047-2C4701369A20}">
   <dimension ref="A1:W315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -29950,10 +30177,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9430E89-8C4A-9848-8F9C-310318091DF7}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31826,6 +32053,29 @@
       </c>
       <c r="G80" s="27">
         <v>0.83520950000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="26">
+        <v>80</v>
+      </c>
+      <c r="B81" s="28">
+        <v>43969</v>
+      </c>
+      <c r="C81" s="27">
+        <v>173</v>
+      </c>
+      <c r="D81" s="27">
+        <v>80</v>
+      </c>
+      <c r="E81" s="27">
+        <v>0.89028799999999997</v>
+      </c>
+      <c r="F81" s="27">
+        <v>0.84624580000000005</v>
+      </c>
+      <c r="G81" s="27">
+        <v>0.93543169999999998</v>
       </c>
     </row>
   </sheetData>
@@ -78229,10 +78479,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8A7C0-95F9-564E-974E-21B66E3A8850}">
-  <dimension ref="A1:BX83"/>
+  <dimension ref="A1:BX84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -78244,6 +78494,65 @@
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76">
@@ -92869,6 +93178,54 @@
         <v>594</v>
       </c>
     </row>
+    <row r="84" spans="1:76">
+      <c r="A84" s="25">
+        <v>43969</v>
+      </c>
+      <c r="B84" s="90">
+        <v>43969</v>
+      </c>
+      <c r="C84">
+        <f>'EKL &amp; VOST'!CC22</f>
+        <v>29209</v>
+      </c>
+      <c r="D84">
+        <f>C84-C83</f>
+        <v>173</v>
+      </c>
+      <c r="E84">
+        <f>'EKL &amp; VOST'!CC8</f>
+        <v>6430</v>
+      </c>
+      <c r="F84">
+        <f>E84-E83</f>
+        <v>1794</v>
+      </c>
+      <c r="G84">
+        <f>'EKL &amp; VOST'!CC29</f>
+        <v>628</v>
+      </c>
+      <c r="H84">
+        <f>'EKL &amp; VOST'!CC32</f>
+        <v>105</v>
+      </c>
+      <c r="I84">
+        <f>'EKL &amp; VOST'!CC18</f>
+        <v>2260</v>
+      </c>
+      <c r="J84">
+        <f>'EKL &amp; VOST'!CC12</f>
+        <v>295449</v>
+      </c>
+      <c r="K84">
+        <f>'EKL &amp; VOST'!CC15</f>
+        <v>25360</v>
+      </c>
+      <c r="L84">
+        <f>'EKL &amp; VOST'!CC5</f>
+        <v>263980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
